--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.813634</v>
+        <v>1.894424333333333</v>
       </c>
       <c r="H2">
-        <v>2.440902</v>
+        <v>5.683273</v>
       </c>
       <c r="I2">
-        <v>0.4058779337539379</v>
+        <v>0.6002819911800915</v>
       </c>
       <c r="J2">
-        <v>0.405877933753938</v>
+        <v>0.6002819911800916</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,22 +561,22 @@
         <v>0.14336</v>
       </c>
       <c r="O2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P2">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q2">
-        <v>0.03888085674666666</v>
+        <v>0.09052822414222221</v>
       </c>
       <c r="R2">
-        <v>0.34992771072</v>
+        <v>0.8147540172799999</v>
       </c>
       <c r="S2">
-        <v>0.2956999867004337</v>
+        <v>0.4685893071362806</v>
       </c>
       <c r="T2">
-        <v>0.2956999867004337</v>
+        <v>0.4685893071362807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.813634</v>
+        <v>1.894424333333333</v>
       </c>
       <c r="H3">
-        <v>2.440902</v>
+        <v>5.683273</v>
       </c>
       <c r="I3">
-        <v>0.4058779337539379</v>
+        <v>0.6002819911800915</v>
       </c>
       <c r="J3">
-        <v>0.405877933753938</v>
+        <v>0.6002819911800916</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N3">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P3">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q3">
-        <v>0.01448702458133333</v>
+        <v>0.02544211879666666</v>
       </c>
       <c r="R3">
-        <v>0.130383221232</v>
+        <v>0.22897906917</v>
       </c>
       <c r="S3">
-        <v>0.1101779470535042</v>
+        <v>0.131692684043811</v>
       </c>
       <c r="T3">
-        <v>0.1101779470535043</v>
+        <v>0.131692684043811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>3.028641</v>
       </c>
       <c r="I4">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728968</v>
       </c>
       <c r="J4">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728969</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.14336</v>
       </c>
       <c r="O4">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P4">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q4">
         <v>0.04824288597333334</v>
@@ -697,10 +697,10 @@
         <v>0.43418597376</v>
       </c>
       <c r="S4">
-        <v>0.3669008847632508</v>
+        <v>0.2497132880568173</v>
       </c>
       <c r="T4">
-        <v>0.3669008847632508</v>
+        <v>0.2497132880568173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>3.028641</v>
       </c>
       <c r="I5">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728968</v>
       </c>
       <c r="J5">
-        <v>0.5036083182210759</v>
+        <v>0.3198928944728969</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N5">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O5">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P5">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q5">
-        <v>0.01797532085066667</v>
+        <v>0.01355821621</v>
       </c>
       <c r="R5">
-        <v>0.161777887656</v>
+        <v>0.12202394589</v>
       </c>
       <c r="S5">
-        <v>0.1367074334578251</v>
+        <v>0.07017960641607958</v>
       </c>
       <c r="T5">
-        <v>0.1367074334578251</v>
+        <v>0.07017960641607959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1139093333333333</v>
+        <v>0.1798433333333334</v>
       </c>
       <c r="H6">
-        <v>0.341728</v>
+        <v>0.5395300000000001</v>
       </c>
       <c r="I6">
-        <v>0.05682319673049787</v>
+        <v>0.05698655382231239</v>
       </c>
       <c r="J6">
-        <v>0.05682319673049788</v>
+        <v>0.05698655382231241</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,22 +809,22 @@
         <v>0.14336</v>
       </c>
       <c r="O6">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P6">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q6">
-        <v>0.005443347342222223</v>
+        <v>0.008594113422222223</v>
       </c>
       <c r="R6">
-        <v>0.04899012608</v>
+        <v>0.0773470208</v>
       </c>
       <c r="S6">
-        <v>0.04139820650528608</v>
+        <v>0.044484575856067</v>
       </c>
       <c r="T6">
-        <v>0.04139820650528609</v>
+        <v>0.04448457585606701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1139093333333333</v>
+        <v>0.1798433333333334</v>
       </c>
       <c r="H7">
-        <v>0.341728</v>
+        <v>0.5395300000000001</v>
       </c>
       <c r="I7">
-        <v>0.05682319673049787</v>
+        <v>0.05698655382231239</v>
       </c>
       <c r="J7">
-        <v>0.05682319673049788</v>
+        <v>0.05698655382231241</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N7">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O7">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P7">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q7">
-        <v>0.002028193649777778</v>
+        <v>0.002415295966666667</v>
       </c>
       <c r="R7">
-        <v>0.018253742848</v>
+        <v>0.0217376637</v>
       </c>
       <c r="S7">
-        <v>0.01542499022521178</v>
+        <v>0.01250197796624539</v>
       </c>
       <c r="T7">
-        <v>0.01542499022521179</v>
+        <v>0.0125019779662454</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.067537</v>
+        <v>0.07207599999999999</v>
       </c>
       <c r="H8">
-        <v>0.202611</v>
+        <v>0.216228</v>
       </c>
       <c r="I8">
-        <v>0.03369055129448831</v>
+        <v>0.0228385605246992</v>
       </c>
       <c r="J8">
-        <v>0.03369055129448831</v>
+        <v>0.02283856052469921</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,22 +933,22 @@
         <v>0.14336</v>
       </c>
       <c r="O8">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="P8">
-        <v>0.728544131398138</v>
+        <v>0.7806153008439968</v>
       </c>
       <c r="Q8">
-        <v>0.003227368106666666</v>
+        <v>0.003444271786666666</v>
       </c>
       <c r="R8">
-        <v>0.02904631295999999</v>
+        <v>0.03099844608</v>
       </c>
       <c r="S8">
-        <v>0.0245450534291674</v>
+        <v>0.0178281297948319</v>
       </c>
       <c r="T8">
-        <v>0.0245450534291674</v>
+        <v>0.0178281297948319</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.067537</v>
+        <v>0.07207599999999999</v>
       </c>
       <c r="H9">
-        <v>0.202611</v>
+        <v>0.216228</v>
       </c>
       <c r="I9">
-        <v>0.03369055129448831</v>
+        <v>0.0228385605246992</v>
       </c>
       <c r="J9">
-        <v>0.03369055129448831</v>
+        <v>0.02283856052469921</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01780533333333333</v>
+        <v>0.01343</v>
       </c>
       <c r="N9">
-        <v>0.053416</v>
+        <v>0.04029</v>
       </c>
       <c r="O9">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="P9">
-        <v>0.271455868601862</v>
+        <v>0.2193846991560033</v>
       </c>
       <c r="Q9">
-        <v>0.001202518797333333</v>
+        <v>0.0009679806799999998</v>
       </c>
       <c r="R9">
-        <v>0.010822669176</v>
+        <v>0.008711826119999998</v>
       </c>
       <c r="S9">
-        <v>0.009145497865320911</v>
+        <v>0.005010430729867307</v>
       </c>
       <c r="T9">
-        <v>0.009145497865320913</v>
+        <v>0.005010430729867309</v>
       </c>
     </row>
   </sheetData>
